--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/出口交货值.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/出口交货值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,349 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11.74654</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18.10202</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.77828</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>55.68596</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28.6503</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.51063</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.31696</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.02719</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.31494</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10.33141</v>
-      </c>
-      <c r="M2" t="n">
-        <v>27.41742</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41.32139</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.211320000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.15487</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>122.97708</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11.28236</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>4.55252</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>0.87558</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13.61313</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>36.01297</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>42.13555</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.06618</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>703.42218</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>97.35907</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.00265</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.86148</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>58.30296</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>19.75012</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.6903</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>12.12755</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29.89104</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>3.90719</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.37322</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>15.4411</v>
-      </c>
-      <c r="C3" t="n">
-        <v>43.93053</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.92698</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.14612</v>
-      </c>
-      <c r="F3" t="n">
-        <v>90.82734000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.21751</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.49824</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.96953</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.81982</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33.43286</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13.50666</v>
-      </c>
-      <c r="M3" t="n">
-        <v>52.47445</v>
-      </c>
-      <c r="N3" t="n">
-        <v>70.27388000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>17.43469</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.85003</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>169.91241</v>
-      </c>
-      <c r="R3" t="n">
-        <v>29.77636</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>6.97503</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>17.56877</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>75.71723</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>85.76878000000001</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.40656</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>1194.97899</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>187.65565</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.21923</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6.79743</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>94.42897000000001</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>32.37679</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.12304</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>13.27738</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41.34937</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>6.78542</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7.01163</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.0492</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>21.34462</v>
-      </c>
-      <c r="C4" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.48085</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.03123</v>
-      </c>
-      <c r="F4" t="n">
-        <v>121.72591</v>
-      </c>
-      <c r="G4" t="n">
-        <v>59.54636</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.52838</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.95725</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.07984</v>
-      </c>
-      <c r="K4" t="n">
-        <v>53.09546</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26.90462</v>
-      </c>
-      <c r="M4" t="n">
-        <v>72.68586000000001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>115.11721</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18.80586</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.86521</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>271.28789</v>
-      </c>
-      <c r="R4" t="n">
-        <v>39.70938</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>10.87762</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>30.38158</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>138.30245</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>142.83389</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.71461</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>1837.85457</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>291.42668</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>8.28816</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>151.65366</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>43.12297</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>7.86851</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17.28504</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>65.4409</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>8.09826</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8.904310000000001</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
